--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/62/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/62/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1571571571571572</v>
+        <v>0.1798179817981798</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1423.423423423424</v>
+        <v>1048.194819481948</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08238238238238238</v>
+        <v>0.05860586058605861</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5665665665665666</v>
+        <v>0.7237723772377238</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1065.065065065065</v>
+        <v>467.1167116711671</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>497.4974974974975</v>
+        <v>126.3726372637264</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>814.8148148148149</v>
+        <v>789.4896489648964</v>
       </c>
     </row>
   </sheetData>
